--- a/Talleres/Matriz_IREB_ Inventario_ferreteriaDSA_V0.2.xlsx
+++ b/Talleres/Matriz_IREB_ Inventario_ferreteriaDSA_V0.2.xlsx
@@ -5606,10 +5606,10 @@
       <c r="B10" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="46"/>
+      <c r="D10" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="46"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="42">
@@ -5689,11 +5689,11 @@
       </c>
       <c r="C17" s="53">
         <f>COUNTA('RF-01 MODELO LISTA DE COMPROBAC'!$C$8:$C$16)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17" s="53">
         <f>COUNTA('RF-01 MODELO LISTA DE COMPROBAC'!$D$8:$D$16)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
@@ -5702,11 +5702,11 @@
       </c>
       <c r="C18" s="54">
         <f t="shared" ref="C18:D18" si="1">C17/9</f>
-        <v>0.7777777778</v>
+        <v>0.6666666667</v>
       </c>
       <c r="D18" s="54">
         <f t="shared" si="1"/>
-        <v>0.2222222222</v>
+        <v>0.3333333333</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
@@ -5924,7 +5924,7 @@
         <v>61</v>
       </c>
       <c r="C41" s="65">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="42" ht="30.0" customHeight="1">
@@ -7099,7 +7099,7 @@
       <c r="B10" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="D10" s="45" t="s">
         <v>67</v>
       </c>
     </row>
@@ -7179,11 +7179,11 @@
       </c>
       <c r="C17" s="53">
         <f>COUNTA('RF-02 MODELO LISTA DE COMPROBAC'!$C$8:$C$16)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17" s="53">
         <f>COUNTA('RF-02 MODELO LISTA DE COMPROBAC'!$D$8:$D$16)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
@@ -7192,11 +7192,11 @@
       </c>
       <c r="C18" s="54">
         <f t="shared" ref="C18:D18" si="1">C17/9</f>
-        <v>0.7777777778</v>
+        <v>0.6666666667</v>
       </c>
       <c r="D18" s="54">
         <f t="shared" si="1"/>
-        <v>0.2222222222</v>
+        <v>0.3333333333</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
@@ -7414,7 +7414,7 @@
       </c>
       <c r="C41" s="53">
         <f>C17</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" ht="30.0" customHeight="1">
@@ -8575,6 +8575,7 @@
       <c r="B9" s="43" t="s">
         <v>68</v>
       </c>
+      <c r="C9" s="68"/>
       <c r="D9" s="44" t="s">
         <v>67</v>
       </c>
@@ -8586,10 +8587,9 @@
       <c r="B10" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="D10" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="68"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="42">
@@ -8669,11 +8669,11 @@
       </c>
       <c r="C17" s="53">
         <f>COUNTA('RF-03 MODELO LISTA DE COMPROBAC'!$C$8:$C$16)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17" s="53">
         <f>COUNTA('RF-03 MODELO LISTA DE COMPROBAC'!$D$8:$D$16)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
@@ -8682,11 +8682,11 @@
       </c>
       <c r="C18" s="54">
         <f t="shared" ref="C18:D18" si="1">C17/9</f>
-        <v>0.7777777778</v>
+        <v>0.6666666667</v>
       </c>
       <c r="D18" s="54">
         <f t="shared" si="1"/>
-        <v>0.2222222222</v>
+        <v>0.3333333333</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
